--- a/Excel/Carga DB Postgres/Ingreso2 - cargado.xlsx
+++ b/Excel/Carga DB Postgres/Ingreso2 - cargado.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="353">
   <si>
     <t>idingreso</t>
   </si>
@@ -1072,6 +1072,9 @@
   </si>
   <si>
     <t>loginUltimoMov</t>
+  </si>
+  <si>
+    <t>DOC-ALCO</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1415,7 @@
   <dimension ref="A1:AF101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+      <selection activeCell="M92" sqref="M92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2127,7 +2130,7 @@
         <v>38</v>
       </c>
       <c r="M9" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="N9" t="s">
         <v>325</v>
@@ -2927,7 +2930,7 @@
         <v>38</v>
       </c>
       <c r="M19" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="N19" t="s">
         <v>335</v>
@@ -3327,7 +3330,7 @@
         <v>38</v>
       </c>
       <c r="M24" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="N24" t="s">
         <v>340</v>
@@ -3967,7 +3970,7 @@
         <v>38</v>
       </c>
       <c r="M32" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N32" t="s">
         <v>348</v>
@@ -4127,7 +4130,7 @@
         <v>38</v>
       </c>
       <c r="M34" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="N34" t="s">
         <v>318</v>
@@ -4767,7 +4770,7 @@
         <v>38</v>
       </c>
       <c r="M42" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="N42" t="s">
         <v>326</v>
@@ -5167,7 +5170,7 @@
         <v>38</v>
       </c>
       <c r="M47" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N47" t="s">
         <v>331</v>
@@ -5647,7 +5650,7 @@
         <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="N53" t="s">
         <v>337</v>
@@ -5807,7 +5810,7 @@
         <v>38</v>
       </c>
       <c r="M55" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N55" t="s">
         <v>339</v>
@@ -5943,7 +5946,7 @@
         <v>6</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E57" t="s">
         <v>93</v>
@@ -6453,7 +6456,7 @@
         <v>1551</v>
       </c>
       <c r="M63" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="N63" t="s">
         <v>347</v>
@@ -6619,7 +6622,7 @@
         <v>1553</v>
       </c>
       <c r="M65" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N65" t="s">
         <v>349</v>
@@ -7197,7 +7200,7 @@
         <v>38</v>
       </c>
       <c r="M72" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="N72" t="s">
         <v>324</v>
@@ -7434,7 +7437,7 @@
         <v>38</v>
       </c>
       <c r="M75" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="N75" t="s">
         <v>327</v>
@@ -8127,7 +8130,7 @@
         <v>38</v>
       </c>
       <c r="M84" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="N84" t="s">
         <v>336</v>
@@ -8435,7 +8438,7 @@
         <v>38</v>
       </c>
       <c r="M88" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N88" t="s">
         <v>340</v>
@@ -8820,7 +8823,7 @@
         <v>38</v>
       </c>
       <c r="M93" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="N93" t="s">
         <v>345</v>
@@ -9051,7 +9054,7 @@
         <v>38</v>
       </c>
       <c r="M96" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N96" t="s">
         <v>348</v>
@@ -9128,7 +9131,7 @@
         <v>38</v>
       </c>
       <c r="M97" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="N97" t="s">
         <v>349</v>

--- a/Excel/Carga DB Postgres/Ingreso2 - cargado.xlsx
+++ b/Excel/Carga DB Postgres/Ingreso2 - cargado.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="333">
   <si>
     <t>idingreso</t>
   </si>
@@ -144,9 +144,6 @@
     <t>KSI649</t>
   </si>
   <si>
-    <t>RBU029</t>
-  </si>
-  <si>
     <t>GWU953</t>
   </si>
   <si>
@@ -156,33 +153,18 @@
     <t>IUU992</t>
   </si>
   <si>
-    <t>B1129857</t>
-  </si>
-  <si>
     <t>SMF389</t>
   </si>
   <si>
-    <t>LOY554</t>
-  </si>
-  <si>
     <t>BCF528</t>
   </si>
   <si>
-    <t>DCW771</t>
-  </si>
-  <si>
     <t>EXQ608</t>
   </si>
   <si>
     <t>TMR067</t>
   </si>
   <si>
-    <t>FWX735</t>
-  </si>
-  <si>
-    <t>DWE363</t>
-  </si>
-  <si>
     <t>GCQ259</t>
   </si>
   <si>
@@ -222,18 +204,12 @@
     <t>AFO356</t>
   </si>
   <si>
-    <t>XJO880</t>
-  </si>
-  <si>
     <t>IYC662</t>
   </si>
   <si>
     <t>GMJ607</t>
   </si>
   <si>
-    <t>RJI873</t>
-  </si>
-  <si>
     <t>HUL241</t>
   </si>
   <si>
@@ -246,9 +222,6 @@
     <t>RUW241</t>
   </si>
   <si>
-    <t>NHR941</t>
-  </si>
-  <si>
     <t>CSK477</t>
   </si>
   <si>
@@ -258,12 +231,6 @@
     <t>IPD987</t>
   </si>
   <si>
-    <t>BSS698</t>
-  </si>
-  <si>
-    <t>GPH823</t>
-  </si>
-  <si>
     <t>UBX027</t>
   </si>
   <si>
@@ -297,9 +264,6 @@
     <t>FVX801</t>
   </si>
   <si>
-    <t>MYN884</t>
-  </si>
-  <si>
     <t>OFB273</t>
   </si>
   <si>
@@ -330,9 +294,6 @@
     <t>DSL994</t>
   </si>
   <si>
-    <t>NUV754</t>
-  </si>
-  <si>
     <t>IGL601</t>
   </si>
   <si>
@@ -354,9 +315,6 @@
     <t>BAT358</t>
   </si>
   <si>
-    <t>JWE492</t>
-  </si>
-  <si>
     <t>IFS740</t>
   </si>
   <si>
@@ -375,9 +333,6 @@
     <t>ADC093</t>
   </si>
   <si>
-    <t>GIC683</t>
-  </si>
-  <si>
     <t>OOS819</t>
   </si>
   <si>
@@ -417,21 +372,12 @@
     <t>ALK169</t>
   </si>
   <si>
-    <t>NZG254</t>
-  </si>
-  <si>
     <t>PPZ770</t>
   </si>
   <si>
     <t>OMA638</t>
   </si>
   <si>
-    <t>LHY570</t>
-  </si>
-  <si>
-    <t>JKD834</t>
-  </si>
-  <si>
     <t>PEUGEOT</t>
   </si>
   <si>
@@ -948,30 +894,6 @@
     <t>2017-09-29-18:45:46</t>
   </si>
   <si>
-    <t>DOC</t>
-  </si>
-  <si>
-    <t>EST.PROHIBIDO</t>
-  </si>
-  <si>
-    <t>ALCOHOLEMIA</t>
-  </si>
-  <si>
-    <t>PLACA</t>
-  </si>
-  <si>
-    <t>ABANDONADO</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ESTUPEFACIENTES</t>
-  </si>
-  <si>
-    <t>Z0021777</t>
-  </si>
-  <si>
     <t>Cabrera</t>
   </si>
   <si>
@@ -1074,7 +996,25 @@
     <t>loginUltimoMov</t>
   </si>
   <si>
-    <t>DOC-ALCO</t>
+    <t>DOCU</t>
+  </si>
+  <si>
+    <t>ESTA</t>
+  </si>
+  <si>
+    <t>DOCU-ALCO</t>
+  </si>
+  <si>
+    <t>ALCO</t>
+  </si>
+  <si>
+    <t>PRIN</t>
+  </si>
+  <si>
+    <t>ENSE</t>
+  </si>
+  <si>
+    <t>COND</t>
   </si>
 </sst>
 </file>
@@ -1110,13 +1050,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1415,7 +1352,7 @@
   <dimension ref="A1:AF101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M92" sqref="M92"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1472,7 +1409,7 @@
         <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
@@ -1499,7 +1436,7 @@
         <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="V1" t="s">
         <v>19</v>
@@ -1552,7 +1489,7 @@
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="G2" s="1">
         <v>405</v>
@@ -1570,19 +1507,19 @@
         <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N2" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="Q2" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="R2">
         <v>2925</v>
@@ -1596,14 +1533,14 @@
       <c r="U2">
         <v>1</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>38</v>
+      <c r="V2" s="1">
+        <v>16733431</v>
+      </c>
+      <c r="AB2">
+        <v>16231956</v>
+      </c>
+      <c r="AC2">
+        <v>16290753</v>
       </c>
       <c r="AD2">
         <v>1</v>
@@ -1620,7 +1557,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1632,10 +1569,10 @@
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="H3" t="s">
         <v>32</v>
@@ -1650,19 +1587,19 @@
         <v>38</v>
       </c>
       <c r="M3" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N3" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="O3" t="s">
         <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="Q3" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="R3">
         <v>8079</v>
@@ -1676,14 +1613,14 @@
       <c r="U3">
         <v>1</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>38</v>
+      <c r="V3" s="1">
+        <v>16269966</v>
+      </c>
+      <c r="AB3">
+        <v>16234041</v>
+      </c>
+      <c r="AC3">
+        <v>16345128</v>
       </c>
       <c r="AD3">
         <v>1</v>
@@ -1700,7 +1637,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1712,10 +1649,10 @@
         <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="H4" t="s">
         <v>33</v>
@@ -1723,26 +1660,23 @@
       <c r="I4">
         <v>3</v>
       </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
       <c r="L4" t="s">
         <v>38</v>
       </c>
       <c r="M4" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="N4" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="O4" t="s">
         <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="Q4" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="R4">
         <v>4096</v>
@@ -1756,14 +1690,14 @@
       <c r="U4">
         <v>1</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>38</v>
+      <c r="V4" s="1">
+        <v>16757576</v>
+      </c>
+      <c r="AB4">
+        <v>16701511</v>
+      </c>
+      <c r="AC4">
+        <v>16943839</v>
       </c>
       <c r="AD4">
         <v>1</v>
@@ -1780,7 +1714,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1789,13 +1723,13 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="H5" t="s">
         <v>34</v>
@@ -1810,19 +1744,19 @@
         <v>38</v>
       </c>
       <c r="M5" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N5" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="O5" t="s">
         <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="Q5" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="R5">
         <v>9184</v>
@@ -1836,14 +1770,14 @@
       <c r="U5">
         <v>1</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>38</v>
+      <c r="V5" s="1">
+        <v>16861776</v>
+      </c>
+      <c r="AB5">
+        <v>16675625</v>
+      </c>
+      <c r="AC5">
+        <v>16477049</v>
       </c>
       <c r="AD5">
         <v>1</v>
@@ -1860,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1869,13 +1803,13 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="H6" t="s">
         <v>35</v>
@@ -1890,19 +1824,19 @@
         <v>38</v>
       </c>
       <c r="M6" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N6" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="O6" t="s">
         <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="Q6" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="R6">
         <v>2649</v>
@@ -1916,14 +1850,14 @@
       <c r="U6">
         <v>1</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>38</v>
+      <c r="V6" s="1">
+        <v>16453933</v>
+      </c>
+      <c r="AB6">
+        <v>16905892</v>
+      </c>
+      <c r="AC6">
+        <v>16335952</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -1940,7 +1874,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1949,13 +1883,13 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="H7" t="s">
         <v>36</v>
@@ -1970,19 +1904,19 @@
         <v>38</v>
       </c>
       <c r="M7" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N7" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="O7" t="s">
         <v>38</v>
       </c>
       <c r="P7" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="Q7" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="R7">
         <v>4478</v>
@@ -1996,14 +1930,14 @@
       <c r="U7">
         <v>1</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>38</v>
+      <c r="V7" s="1">
+        <v>16611623</v>
+      </c>
+      <c r="AB7">
+        <v>16574363</v>
+      </c>
+      <c r="AC7">
+        <v>16587047</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -2020,7 +1954,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2029,13 +1963,13 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="H8" t="s">
         <v>37</v>
@@ -2043,26 +1977,23 @@
       <c r="I8">
         <v>7</v>
       </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
       <c r="L8" t="s">
         <v>38</v>
       </c>
       <c r="M8" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="N8" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="O8" t="s">
         <v>38</v>
       </c>
       <c r="P8" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="Q8" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="R8">
         <v>5773</v>
@@ -2076,14 +2007,14 @@
       <c r="U8">
         <v>1</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC8" s="2" t="s">
-        <v>38</v>
+      <c r="V8" s="1">
+        <v>16841112</v>
+      </c>
+      <c r="AB8">
+        <v>16395016</v>
+      </c>
+      <c r="AC8">
+        <v>16659640</v>
       </c>
       <c r="AD8">
         <v>1</v>
@@ -2100,7 +2031,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2109,13 +2040,13 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="H9" t="s">
         <v>31</v>
@@ -2130,19 +2061,19 @@
         <v>38</v>
       </c>
       <c r="M9" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="N9" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="O9" t="s">
         <v>38</v>
       </c>
       <c r="P9" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="Q9" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="R9">
         <v>3840</v>
@@ -2156,14 +2087,14 @@
       <c r="U9">
         <v>1</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>38</v>
+      <c r="V9" s="1">
+        <v>16758759</v>
+      </c>
+      <c r="AB9">
+        <v>16751638</v>
+      </c>
+      <c r="AC9">
+        <v>16242847</v>
       </c>
       <c r="AD9">
         <v>1</v>
@@ -2180,7 +2111,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2189,10 +2120,10 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="G10" s="1">
         <v>504</v>
@@ -2203,26 +2134,23 @@
       <c r="I10">
         <v>9</v>
       </c>
-      <c r="J10">
-        <v>9</v>
-      </c>
       <c r="L10" t="s">
         <v>38</v>
       </c>
       <c r="M10" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="N10" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="O10" t="s">
         <v>38</v>
       </c>
       <c r="P10" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="Q10" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="R10">
         <v>7265</v>
@@ -2236,14 +2164,14 @@
       <c r="U10">
         <v>1</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>38</v>
+      <c r="V10" s="1">
+        <v>16325513</v>
+      </c>
+      <c r="AB10">
+        <v>16232862</v>
+      </c>
+      <c r="AC10">
+        <v>16986859</v>
       </c>
       <c r="AD10">
         <v>1</v>
@@ -2260,7 +2188,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2269,13 +2197,13 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="H11" t="s">
         <v>33</v>
@@ -2290,19 +2218,19 @@
         <v>38</v>
       </c>
       <c r="M11" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N11" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="O11" t="s">
         <v>38</v>
       </c>
       <c r="P11" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="Q11" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="R11">
         <v>6502</v>
@@ -2316,14 +2244,14 @@
       <c r="U11">
         <v>1</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>38</v>
+      <c r="V11" s="1">
+        <v>16926010</v>
+      </c>
+      <c r="AB11">
+        <v>16971093</v>
+      </c>
+      <c r="AC11">
+        <v>16275162</v>
       </c>
       <c r="AD11">
         <v>1</v>
@@ -2340,7 +2268,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2349,13 +2277,13 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="H12" t="s">
         <v>34</v>
@@ -2363,26 +2291,23 @@
       <c r="I12">
         <v>11</v>
       </c>
-      <c r="J12">
-        <v>11</v>
-      </c>
       <c r="L12" t="s">
         <v>38</v>
       </c>
       <c r="M12" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="N12" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="O12" t="s">
         <v>38</v>
       </c>
       <c r="P12" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="Q12" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="R12">
         <v>1401</v>
@@ -2396,14 +2321,14 @@
       <c r="U12">
         <v>1</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>38</v>
+      <c r="V12" s="1">
+        <v>16421115</v>
+      </c>
+      <c r="AB12">
+        <v>16775853</v>
+      </c>
+      <c r="AC12">
+        <v>16332432</v>
       </c>
       <c r="AD12">
         <v>1</v>
@@ -2420,7 +2345,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2429,13 +2354,13 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -2450,19 +2375,19 @@
         <v>38</v>
       </c>
       <c r="M13" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N13" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="O13" t="s">
         <v>38</v>
       </c>
       <c r="P13" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="Q13" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="R13">
         <v>8971</v>
@@ -2476,14 +2401,14 @@
       <c r="U13">
         <v>1</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>38</v>
+      <c r="V13" s="1">
+        <v>16792337</v>
+      </c>
+      <c r="AB13">
+        <v>16433705</v>
+      </c>
+      <c r="AC13">
+        <v>16770066</v>
       </c>
       <c r="AD13">
         <v>1</v>
@@ -2500,7 +2425,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2509,13 +2434,13 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="H14" t="s">
         <v>37</v>
@@ -2530,19 +2455,19 @@
         <v>38</v>
       </c>
       <c r="M14" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="N14" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="O14" t="s">
         <v>38</v>
       </c>
       <c r="P14" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="Q14" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="R14">
         <v>7639</v>
@@ -2556,14 +2481,14 @@
       <c r="U14">
         <v>1</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>38</v>
+      <c r="V14" s="1">
+        <v>16172206</v>
+      </c>
+      <c r="AB14">
+        <v>16690508</v>
+      </c>
+      <c r="AC14">
+        <v>16380081</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -2580,7 +2505,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -2589,10 +2514,10 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="G15" s="1">
         <v>505</v>
@@ -2603,26 +2528,23 @@
       <c r="I15">
         <v>14</v>
       </c>
-      <c r="J15">
-        <v>14</v>
-      </c>
       <c r="L15" t="s">
         <v>38</v>
       </c>
       <c r="M15" t="s">
+        <v>327</v>
+      </c>
+      <c r="N15" t="s">
+        <v>305</v>
+      </c>
+      <c r="O15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q15" t="s">
         <v>311</v>
-      </c>
-      <c r="N15" t="s">
-        <v>331</v>
-      </c>
-      <c r="O15" t="s">
-        <v>38</v>
-      </c>
-      <c r="P15" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>337</v>
       </c>
       <c r="R15">
         <v>8889</v>
@@ -2636,14 +2558,14 @@
       <c r="U15">
         <v>1</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>38</v>
+      <c r="V15" s="1">
+        <v>16473813</v>
+      </c>
+      <c r="AB15">
+        <v>16429061</v>
+      </c>
+      <c r="AC15">
+        <v>16745487</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -2660,7 +2582,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -2669,13 +2591,13 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="H16" t="s">
         <v>32</v>
@@ -2683,26 +2605,23 @@
       <c r="I16">
         <v>15</v>
       </c>
-      <c r="J16">
-        <v>15</v>
-      </c>
       <c r="L16" t="s">
         <v>38</v>
       </c>
       <c r="M16" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="N16" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="O16" t="s">
         <v>38</v>
       </c>
       <c r="P16" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="Q16" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="R16">
         <v>1805</v>
@@ -2716,14 +2635,14 @@
       <c r="U16">
         <v>1</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC16" s="2" t="s">
-        <v>38</v>
+      <c r="V16" s="1">
+        <v>16521584</v>
+      </c>
+      <c r="AB16">
+        <v>16532642</v>
+      </c>
+      <c r="AC16">
+        <v>16188704</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -2740,7 +2659,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2749,13 +2668,13 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="H17" t="s">
         <v>33</v>
@@ -2763,26 +2682,23 @@
       <c r="I17">
         <v>16</v>
       </c>
-      <c r="J17">
-        <v>16</v>
-      </c>
       <c r="L17" t="s">
         <v>38</v>
       </c>
       <c r="M17" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="N17" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="O17" t="s">
         <v>38</v>
       </c>
       <c r="P17" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="Q17" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="R17">
         <v>4770</v>
@@ -2796,14 +2712,14 @@
       <c r="U17">
         <v>1</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC17" s="2" t="s">
-        <v>38</v>
+      <c r="V17" s="1">
+        <v>16277217</v>
+      </c>
+      <c r="AB17">
+        <v>16956164</v>
+      </c>
+      <c r="AC17">
+        <v>16710819</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -2820,7 +2736,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -2829,13 +2745,13 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="H18" t="s">
         <v>34</v>
@@ -2850,19 +2766,19 @@
         <v>38</v>
       </c>
       <c r="M18" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N18" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="O18" t="s">
         <v>38</v>
       </c>
       <c r="P18" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="Q18" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="R18">
         <v>9056</v>
@@ -2876,14 +2792,14 @@
       <c r="U18">
         <v>1</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>38</v>
+      <c r="V18" s="1">
+        <v>16627204</v>
+      </c>
+      <c r="AB18">
+        <v>16612662</v>
+      </c>
+      <c r="AC18">
+        <v>16347650</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -2900,7 +2816,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -2909,13 +2825,13 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -2930,19 +2846,19 @@
         <v>38</v>
       </c>
       <c r="M19" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="N19" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="O19" t="s">
         <v>38</v>
       </c>
       <c r="P19" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="Q19" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="R19">
         <v>8312</v>
@@ -2956,14 +2872,14 @@
       <c r="U19">
         <v>1</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>38</v>
+      <c r="V19" s="1">
+        <v>16387365</v>
+      </c>
+      <c r="AB19">
+        <v>16865127</v>
+      </c>
+      <c r="AC19">
+        <v>16863432</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -2980,7 +2896,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2989,13 +2905,13 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="H20" t="s">
         <v>37</v>
@@ -3010,19 +2926,19 @@
         <v>38</v>
       </c>
       <c r="M20" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="N20" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="O20" t="s">
         <v>38</v>
       </c>
       <c r="P20" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="Q20" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="R20">
         <v>3234</v>
@@ -3036,14 +2952,14 @@
       <c r="U20">
         <v>1</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC20" s="2" t="s">
-        <v>38</v>
+      <c r="V20" s="1">
+        <v>16357274</v>
+      </c>
+      <c r="AB20">
+        <v>16230776</v>
+      </c>
+      <c r="AC20">
+        <v>16322415</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -3060,7 +2976,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -3069,10 +2985,10 @@
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="G21" s="1">
         <v>306</v>
@@ -3090,19 +3006,19 @@
         <v>38</v>
       </c>
       <c r="M21" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N21" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="O21" t="s">
         <v>38</v>
       </c>
       <c r="P21" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="Q21" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="R21">
         <v>5335</v>
@@ -3116,14 +3032,14 @@
       <c r="U21">
         <v>1</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC21" s="2" t="s">
-        <v>38</v>
+      <c r="V21" s="1">
+        <v>16946163</v>
+      </c>
+      <c r="AB21">
+        <v>16606165</v>
+      </c>
+      <c r="AC21">
+        <v>16574814</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -3140,7 +3056,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -3149,13 +3065,13 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="H22" t="s">
         <v>31</v>
@@ -3163,26 +3079,23 @@
       <c r="I22">
         <v>21</v>
       </c>
-      <c r="J22">
-        <v>21</v>
-      </c>
       <c r="L22" t="s">
         <v>38</v>
       </c>
       <c r="M22" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="N22" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="O22" t="s">
         <v>38</v>
       </c>
       <c r="P22" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="Q22" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="R22">
         <v>9505</v>
@@ -3196,14 +3109,14 @@
       <c r="U22">
         <v>1</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC22" s="2" t="s">
-        <v>38</v>
+      <c r="V22" s="1">
+        <v>16748338</v>
+      </c>
+      <c r="AB22">
+        <v>16104149</v>
+      </c>
+      <c r="AC22">
+        <v>16939100</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -3220,7 +3133,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -3229,13 +3142,13 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="H23" t="s">
         <v>32</v>
@@ -3243,26 +3156,23 @@
       <c r="I23">
         <v>22</v>
       </c>
-      <c r="J23">
-        <v>22</v>
-      </c>
       <c r="L23" t="s">
         <v>38</v>
       </c>
       <c r="M23" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="N23" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="O23" t="s">
         <v>38</v>
       </c>
       <c r="P23" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="Q23" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="R23">
         <v>8804</v>
@@ -3276,14 +3186,14 @@
       <c r="U23">
         <v>1</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>38</v>
+      <c r="V23" s="1">
+        <v>16138057</v>
+      </c>
+      <c r="AB23">
+        <v>16445176</v>
+      </c>
+      <c r="AC23">
+        <v>16495316</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -3300,7 +3210,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -3309,13 +3219,13 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="H24" t="s">
         <v>33</v>
@@ -3330,19 +3240,19 @@
         <v>38</v>
       </c>
       <c r="M24" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="N24" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="O24" t="s">
         <v>38</v>
       </c>
       <c r="P24" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="Q24" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="R24">
         <v>5582</v>
@@ -3356,14 +3266,14 @@
       <c r="U24">
         <v>1</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC24" s="2" t="s">
-        <v>38</v>
+      <c r="V24" s="1">
+        <v>16267516</v>
+      </c>
+      <c r="AB24">
+        <v>16274122</v>
+      </c>
+      <c r="AC24">
+        <v>16698209</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -3380,7 +3290,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -3389,10 +3299,10 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G25" s="1">
         <v>600</v>
@@ -3403,26 +3313,23 @@
       <c r="I25">
         <v>24</v>
       </c>
-      <c r="J25">
-        <v>24</v>
-      </c>
       <c r="L25" t="s">
         <v>38</v>
       </c>
       <c r="M25" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="N25" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="O25" t="s">
         <v>38</v>
       </c>
       <c r="P25" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="Q25" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="R25">
         <v>6722</v>
@@ -3436,14 +3343,14 @@
       <c r="U25">
         <v>1</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC25" s="2" t="s">
-        <v>38</v>
+      <c r="V25" s="1">
+        <v>16134518</v>
+      </c>
+      <c r="AB25">
+        <v>16295147</v>
+      </c>
+      <c r="AC25">
+        <v>16415084</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -3460,7 +3367,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -3469,13 +3376,13 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -3490,19 +3397,19 @@
         <v>38</v>
       </c>
       <c r="M26" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="N26" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="O26" t="s">
         <v>38</v>
       </c>
       <c r="P26" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="Q26" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="R26">
         <v>1520</v>
@@ -3516,14 +3423,14 @@
       <c r="U26">
         <v>1</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC26" s="2" t="s">
-        <v>38</v>
+      <c r="V26" s="1">
+        <v>16891221</v>
+      </c>
+      <c r="AB26">
+        <v>16894282</v>
+      </c>
+      <c r="AC26">
+        <v>16042792</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -3540,7 +3447,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -3549,13 +3456,13 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="H27" t="s">
         <v>37</v>
@@ -3570,19 +3477,19 @@
         <v>38</v>
       </c>
       <c r="M27" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="N27" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="O27" t="s">
         <v>38</v>
       </c>
       <c r="P27" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="Q27" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="R27">
         <v>6821</v>
@@ -3596,14 +3503,14 @@
       <c r="U27">
         <v>1</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC27" s="2" t="s">
-        <v>38</v>
+      <c r="V27" s="1">
+        <v>16988781</v>
+      </c>
+      <c r="AB27">
+        <v>16528372</v>
+      </c>
+      <c r="AC27">
+        <v>16475238</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -3620,7 +3527,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -3629,13 +3536,13 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="H28" t="s">
         <v>31</v>
@@ -3650,19 +3557,19 @@
         <v>38</v>
       </c>
       <c r="M28" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="N28" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="O28" t="s">
         <v>38</v>
       </c>
       <c r="P28" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="Q28" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="R28">
         <v>1544</v>
@@ -3676,14 +3583,14 @@
       <c r="U28">
         <v>1</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC28" s="2" t="s">
-        <v>38</v>
+      <c r="V28" s="1">
+        <v>16301323</v>
+      </c>
+      <c r="AB28">
+        <v>16626249</v>
+      </c>
+      <c r="AC28">
+        <v>16169674</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -3700,7 +3607,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -3709,13 +3616,13 @@
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="H29" t="s">
         <v>32</v>
@@ -3730,19 +3637,19 @@
         <v>38</v>
       </c>
       <c r="M29" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N29" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="O29" t="s">
         <v>38</v>
       </c>
       <c r="P29" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="Q29" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="R29">
         <v>8355</v>
@@ -3756,14 +3663,14 @@
       <c r="U29">
         <v>1</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC29" s="2" t="s">
-        <v>38</v>
+      <c r="V29" s="1">
+        <v>16133930</v>
+      </c>
+      <c r="AB29">
+        <v>16450251</v>
+      </c>
+      <c r="AC29">
+        <v>16745371</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -3780,7 +3687,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -3789,10 +3696,10 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F30" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="G30" s="1">
         <v>504</v>
@@ -3810,19 +3717,19 @@
         <v>38</v>
       </c>
       <c r="M30" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="N30" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="O30" t="s">
         <v>38</v>
       </c>
       <c r="P30" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="Q30" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="R30">
         <v>666</v>
@@ -3836,14 +3743,14 @@
       <c r="U30">
         <v>1</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC30" s="2" t="s">
-        <v>38</v>
+      <c r="V30" s="1">
+        <v>16437857</v>
+      </c>
+      <c r="AB30">
+        <v>16594941</v>
+      </c>
+      <c r="AC30">
+        <v>16417620</v>
       </c>
       <c r="AD30">
         <v>1</v>
@@ -3860,7 +3767,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -3869,13 +3776,13 @@
         <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="H31" t="s">
         <v>34</v>
@@ -3890,19 +3797,19 @@
         <v>38</v>
       </c>
       <c r="M31" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="N31" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="O31" t="s">
         <v>38</v>
       </c>
       <c r="P31" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="Q31" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="R31">
         <v>2393</v>
@@ -3916,14 +3823,14 @@
       <c r="U31">
         <v>1</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC31" s="2" t="s">
-        <v>38</v>
+      <c r="V31" s="1">
+        <v>16720659</v>
+      </c>
+      <c r="AB31">
+        <v>16456943</v>
+      </c>
+      <c r="AC31">
+        <v>16980576</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -3940,7 +3847,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -3949,13 +3856,13 @@
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="H32" t="s">
         <v>36</v>
@@ -3963,26 +3870,23 @@
       <c r="I32">
         <v>31</v>
       </c>
-      <c r="J32">
-        <v>31</v>
-      </c>
       <c r="L32" t="s">
         <v>38</v>
       </c>
       <c r="M32" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="N32" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="O32" t="s">
         <v>38</v>
       </c>
       <c r="P32" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="Q32" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="R32">
         <v>1571</v>
@@ -3996,14 +3900,14 @@
       <c r="U32">
         <v>1</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC32" s="2" t="s">
-        <v>38</v>
+      <c r="V32" s="1">
+        <v>16102292</v>
+      </c>
+      <c r="AB32">
+        <v>16781369</v>
+      </c>
+      <c r="AC32">
+        <v>16833422</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -4020,7 +3924,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -4029,13 +3933,13 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="H33" t="s">
         <v>37</v>
@@ -4050,19 +3954,19 @@
         <v>38</v>
       </c>
       <c r="M33" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="N33" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="O33" t="s">
         <v>38</v>
       </c>
       <c r="P33" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="Q33" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="R33">
         <v>4615</v>
@@ -4077,13 +3981,13 @@
         <v>1</v>
       </c>
       <c r="V33" s="1">
-        <v>16552688</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC33" s="2" t="s">
-        <v>38</v>
+        <v>16102670</v>
+      </c>
+      <c r="AB33">
+        <v>16890773</v>
+      </c>
+      <c r="AC33">
+        <v>16250853</v>
       </c>
       <c r="AD33">
         <v>1</v>
@@ -4100,7 +4004,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -4109,10 +4013,10 @@
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F34" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="G34" s="1">
         <v>21</v>
@@ -4130,19 +4034,19 @@
         <v>38</v>
       </c>
       <c r="M34" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="N34" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="O34" t="s">
         <v>38</v>
       </c>
       <c r="P34" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="Q34" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="R34">
         <v>6033</v>
@@ -4156,14 +4060,14 @@
       <c r="U34">
         <v>1</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC34" s="2" t="s">
-        <v>38</v>
+      <c r="V34" s="1">
+        <v>16835500</v>
+      </c>
+      <c r="AB34">
+        <v>16450113</v>
+      </c>
+      <c r="AC34">
+        <v>16457685</v>
       </c>
       <c r="AD34">
         <v>1</v>
@@ -4180,7 +4084,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -4189,13 +4093,13 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F35" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="H35" t="s">
         <v>31</v>
@@ -4210,19 +4114,19 @@
         <v>38</v>
       </c>
       <c r="M35" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N35" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="O35" t="s">
         <v>38</v>
       </c>
       <c r="P35" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="Q35" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="R35">
         <v>3322</v>
@@ -4236,14 +4140,14 @@
       <c r="U35">
         <v>1</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC35" s="2" t="s">
-        <v>38</v>
+      <c r="V35" s="1">
+        <v>16417779</v>
+      </c>
+      <c r="AB35">
+        <v>16995565</v>
+      </c>
+      <c r="AC35">
+        <v>16733135</v>
       </c>
       <c r="AD35">
         <v>1</v>
@@ -4260,7 +4164,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -4269,13 +4173,13 @@
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="H36" t="s">
         <v>32</v>
@@ -4290,19 +4194,19 @@
         <v>38</v>
       </c>
       <c r="M36" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="N36" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="O36" t="s">
         <v>38</v>
       </c>
       <c r="P36" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="Q36" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="R36">
         <v>2250</v>
@@ -4316,14 +4220,14 @@
       <c r="U36">
         <v>1</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC36" s="2" t="s">
-        <v>38</v>
+      <c r="V36" s="1">
+        <v>16105875</v>
+      </c>
+      <c r="AB36">
+        <v>16351554</v>
+      </c>
+      <c r="AC36">
+        <v>16723200</v>
       </c>
       <c r="AD36">
         <v>1</v>
@@ -4340,7 +4244,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -4349,13 +4253,13 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F37" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="H37" t="s">
         <v>33</v>
@@ -4370,19 +4274,19 @@
         <v>38</v>
       </c>
       <c r="M37" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="N37" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="O37" t="s">
         <v>38</v>
       </c>
       <c r="P37" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="Q37" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="R37">
         <v>1348</v>
@@ -4396,14 +4300,14 @@
       <c r="U37">
         <v>1</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC37" s="2" t="s">
-        <v>38</v>
+      <c r="V37" s="1">
+        <v>16749308</v>
+      </c>
+      <c r="AB37">
+        <v>16988911</v>
+      </c>
+      <c r="AC37">
+        <v>16716169</v>
       </c>
       <c r="AD37">
         <v>1</v>
@@ -4420,7 +4324,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -4429,13 +4333,13 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F38" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="H38" t="s">
         <v>34</v>
@@ -4450,19 +4354,19 @@
         <v>38</v>
       </c>
       <c r="M38" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="N38" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="O38" t="s">
         <v>38</v>
       </c>
       <c r="P38" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="Q38" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="R38">
         <v>6378</v>
@@ -4476,14 +4380,14 @@
       <c r="U38">
         <v>1</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC38" s="2" t="s">
-        <v>38</v>
+      <c r="V38" s="1">
+        <v>16166529</v>
+      </c>
+      <c r="AB38">
+        <v>16553961</v>
+      </c>
+      <c r="AC38">
+        <v>16003730</v>
       </c>
       <c r="AD38">
         <v>1</v>
@@ -4500,7 +4404,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -4509,13 +4413,13 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F39" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="H39" t="s">
         <v>36</v>
@@ -4530,19 +4434,19 @@
         <v>38</v>
       </c>
       <c r="M39" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N39" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="O39" t="s">
         <v>38</v>
       </c>
       <c r="P39" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="Q39" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="R39">
         <v>146</v>
@@ -4556,14 +4460,14 @@
       <c r="U39">
         <v>1</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC39" s="2" t="s">
-        <v>38</v>
+      <c r="V39" s="1">
+        <v>16543832</v>
+      </c>
+      <c r="AB39">
+        <v>16132293</v>
+      </c>
+      <c r="AC39">
+        <v>16968377</v>
       </c>
       <c r="AD39">
         <v>1</v>
@@ -4580,22 +4484,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C40">
         <v>4</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F40" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="H40" t="s">
         <v>37</v>
@@ -4610,19 +4514,19 @@
         <v>38</v>
       </c>
       <c r="M40" t="s">
+        <v>326</v>
+      </c>
+      <c r="N40" t="s">
+        <v>298</v>
+      </c>
+      <c r="O40" t="s">
+        <v>38</v>
+      </c>
+      <c r="P40" t="s">
         <v>314</v>
       </c>
-      <c r="N40" t="s">
-        <v>324</v>
-      </c>
-      <c r="O40" t="s">
-        <v>38</v>
-      </c>
-      <c r="P40" t="s">
-        <v>340</v>
-      </c>
       <c r="Q40" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="R40">
         <v>8087</v>
@@ -4636,14 +4540,14 @@
       <c r="U40">
         <v>1</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC40" s="2" t="s">
-        <v>38</v>
+      <c r="V40" s="1">
+        <v>16346558</v>
+      </c>
+      <c r="AB40">
+        <v>16524767</v>
+      </c>
+      <c r="AC40">
+        <v>16080029</v>
       </c>
       <c r="AD40">
         <v>1</v>
@@ -4660,7 +4564,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -4669,13 +4573,13 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F41" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="H41" t="s">
         <v>34</v>
@@ -4690,19 +4594,19 @@
         <v>38</v>
       </c>
       <c r="M41" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N41" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="O41" t="s">
         <v>38</v>
       </c>
       <c r="P41" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="Q41" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="R41">
         <v>9558</v>
@@ -4716,14 +4620,14 @@
       <c r="U41">
         <v>1</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC41" s="2" t="s">
-        <v>38</v>
+      <c r="V41" s="1">
+        <v>16328445</v>
+      </c>
+      <c r="AB41">
+        <v>16523447</v>
+      </c>
+      <c r="AC41">
+        <v>16536257</v>
       </c>
       <c r="AD41">
         <v>1</v>
@@ -4740,7 +4644,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -4749,13 +4653,13 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F42" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="H42" t="s">
         <v>31</v>
@@ -4770,19 +4674,19 @@
         <v>38</v>
       </c>
       <c r="M42" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="N42" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="O42" t="s">
         <v>38</v>
       </c>
       <c r="P42" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="Q42" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="R42">
         <v>1343</v>
@@ -4796,14 +4700,14 @@
       <c r="U42">
         <v>1</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC42" s="2" t="s">
-        <v>38</v>
+      <c r="V42" s="1">
+        <v>16485664</v>
+      </c>
+      <c r="AB42">
+        <v>16255699</v>
+      </c>
+      <c r="AC42">
+        <v>16576234</v>
       </c>
       <c r="AD42">
         <v>1</v>
@@ -4820,7 +4724,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -4829,13 +4733,13 @@
         <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F43" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="H43" t="s">
         <v>32</v>
@@ -4850,19 +4754,19 @@
         <v>38</v>
       </c>
       <c r="M43" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N43" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="O43" t="s">
         <v>38</v>
       </c>
       <c r="P43" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="Q43" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="R43">
         <v>6174</v>
@@ -4876,14 +4780,14 @@
       <c r="U43">
         <v>1</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC43" s="2" t="s">
-        <v>38</v>
+      <c r="V43" s="1">
+        <v>16330440</v>
+      </c>
+      <c r="AB43">
+        <v>16586330</v>
+      </c>
+      <c r="AC43">
+        <v>16507107</v>
       </c>
       <c r="AD43">
         <v>1</v>
@@ -4900,7 +4804,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -4909,10 +4813,10 @@
         <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>38</v>
@@ -4923,26 +4827,23 @@
       <c r="I44">
         <v>43</v>
       </c>
-      <c r="J44">
-        <v>43</v>
-      </c>
       <c r="L44" t="s">
         <v>38</v>
       </c>
       <c r="M44" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="N44" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="O44" t="s">
         <v>38</v>
       </c>
       <c r="P44" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="Q44" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="R44">
         <v>7850</v>
@@ -4956,14 +4857,14 @@
       <c r="U44">
         <v>1</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC44" s="2" t="s">
-        <v>38</v>
+      <c r="V44" s="1">
+        <v>16779604</v>
+      </c>
+      <c r="AB44">
+        <v>16959822</v>
+      </c>
+      <c r="AC44">
+        <v>16117511</v>
       </c>
       <c r="AD44">
         <v>1</v>
@@ -4980,7 +4881,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -4989,13 +4890,13 @@
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="H45" t="s">
         <v>34</v>
@@ -5010,19 +4911,19 @@
         <v>38</v>
       </c>
       <c r="M45" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N45" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="O45" t="s">
         <v>38</v>
       </c>
       <c r="P45" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="Q45" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="R45">
         <v>9940</v>
@@ -5036,14 +4937,14 @@
       <c r="U45">
         <v>1</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC45" s="2" t="s">
-        <v>38</v>
+      <c r="V45" s="1">
+        <v>16346083</v>
+      </c>
+      <c r="AB45">
+        <v>16688071</v>
+      </c>
+      <c r="AC45">
+        <v>16896899</v>
       </c>
       <c r="AD45">
         <v>1</v>
@@ -5060,7 +4961,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -5069,13 +4970,13 @@
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F46" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="H46" t="s">
         <v>36</v>
@@ -5083,26 +4984,23 @@
       <c r="I46">
         <v>45</v>
       </c>
-      <c r="J46">
-        <v>45</v>
-      </c>
       <c r="L46" t="s">
         <v>38</v>
       </c>
       <c r="M46" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="N46" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="O46" t="s">
         <v>38</v>
       </c>
       <c r="P46" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="Q46" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="R46">
         <v>6399</v>
@@ -5116,14 +5014,14 @@
       <c r="U46">
         <v>1</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC46" s="2" t="s">
-        <v>38</v>
+      <c r="V46" s="1">
+        <v>16211546</v>
+      </c>
+      <c r="AB46">
+        <v>16431742</v>
+      </c>
+      <c r="AC46">
+        <v>16094945</v>
       </c>
       <c r="AD46">
         <v>1</v>
@@ -5140,7 +5038,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -5149,13 +5047,13 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F47" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="H47" t="s">
         <v>37</v>
@@ -5163,26 +5061,23 @@
       <c r="I47">
         <v>46</v>
       </c>
-      <c r="J47">
-        <v>46</v>
-      </c>
       <c r="L47" t="s">
         <v>38</v>
       </c>
       <c r="M47" t="s">
+        <v>327</v>
+      </c>
+      <c r="N47" t="s">
+        <v>305</v>
+      </c>
+      <c r="O47" t="s">
+        <v>38</v>
+      </c>
+      <c r="P47" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q47" t="s">
         <v>311</v>
-      </c>
-      <c r="N47" t="s">
-        <v>331</v>
-      </c>
-      <c r="O47" t="s">
-        <v>38</v>
-      </c>
-      <c r="P47" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>337</v>
       </c>
       <c r="R47">
         <v>5143</v>
@@ -5196,14 +5091,14 @@
       <c r="U47">
         <v>1</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC47" s="2" t="s">
-        <v>38</v>
+      <c r="V47" s="1">
+        <v>16896229</v>
+      </c>
+      <c r="AB47">
+        <v>16212833</v>
+      </c>
+      <c r="AC47">
+        <v>16285239</v>
       </c>
       <c r="AD47">
         <v>1</v>
@@ -5220,7 +5115,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -5229,13 +5124,13 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F48" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="H48" t="s">
         <v>34</v>
@@ -5250,19 +5145,19 @@
         <v>38</v>
       </c>
       <c r="M48" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N48" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="O48" t="s">
         <v>38</v>
       </c>
       <c r="P48" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="Q48" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="R48">
         <v>2240</v>
@@ -5276,14 +5171,14 @@
       <c r="U48">
         <v>1</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC48" s="2" t="s">
-        <v>38</v>
+      <c r="V48" s="1">
+        <v>16242075</v>
+      </c>
+      <c r="AB48">
+        <v>16156933</v>
+      </c>
+      <c r="AC48">
+        <v>16281140</v>
       </c>
       <c r="AD48">
         <v>1</v>
@@ -5300,7 +5195,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -5309,13 +5204,13 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F49" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="H49" t="s">
         <v>31</v>
@@ -5330,19 +5225,19 @@
         <v>38</v>
       </c>
       <c r="M49" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N49" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="O49" t="s">
         <v>38</v>
       </c>
       <c r="P49" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="Q49" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="R49">
         <v>7674</v>
@@ -5356,14 +5251,14 @@
       <c r="U49">
         <v>1</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC49" s="2" t="s">
-        <v>38</v>
+      <c r="V49" s="1">
+        <v>16993354</v>
+      </c>
+      <c r="AB49">
+        <v>16084555</v>
+      </c>
+      <c r="AC49">
+        <v>16657135</v>
       </c>
       <c r="AD49">
         <v>1</v>
@@ -5380,7 +5275,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -5389,13 +5284,13 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F50" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="H50" t="s">
         <v>36</v>
@@ -5410,19 +5305,19 @@
         <v>38</v>
       </c>
       <c r="M50" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N50" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="O50" t="s">
         <v>38</v>
       </c>
       <c r="P50" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="Q50" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="R50">
         <v>4405</v>
@@ -5436,14 +5331,14 @@
       <c r="U50">
         <v>1</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC50" s="2" t="s">
-        <v>38</v>
+      <c r="V50" s="1">
+        <v>16130915</v>
+      </c>
+      <c r="AB50">
+        <v>16340268</v>
+      </c>
+      <c r="AC50">
+        <v>16398920</v>
       </c>
       <c r="AD50">
         <v>1</v>
@@ -5460,7 +5355,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -5469,13 +5364,13 @@
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F51" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="H51" t="s">
         <v>37</v>
@@ -5490,19 +5385,19 @@
         <v>38</v>
       </c>
       <c r="M51" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N51" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="O51" t="s">
         <v>38</v>
       </c>
       <c r="P51" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="Q51" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="R51">
         <v>865</v>
@@ -5516,14 +5411,14 @@
       <c r="U51">
         <v>1</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC51" s="2" t="s">
-        <v>38</v>
+      <c r="V51" s="1">
+        <v>16338233</v>
+      </c>
+      <c r="AB51">
+        <v>16189349</v>
+      </c>
+      <c r="AC51">
+        <v>16381049</v>
       </c>
       <c r="AD51">
         <v>1</v>
@@ -5540,7 +5435,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -5549,13 +5444,13 @@
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F52" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="H52" t="s">
         <v>34</v>
@@ -5570,19 +5465,19 @@
         <v>38</v>
       </c>
       <c r="M52" t="s">
+        <v>326</v>
+      </c>
+      <c r="N52" t="s">
         <v>310</v>
       </c>
-      <c r="N52" t="s">
-        <v>336</v>
-      </c>
       <c r="O52" t="s">
         <v>38</v>
       </c>
       <c r="P52" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="Q52" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="R52">
         <v>4925</v>
@@ -5596,14 +5491,14 @@
       <c r="U52">
         <v>4</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC52" s="2" t="s">
-        <v>38</v>
+      <c r="V52" s="1">
+        <v>16693779</v>
+      </c>
+      <c r="AB52">
+        <v>16613125</v>
+      </c>
+      <c r="AC52">
+        <v>16011864</v>
       </c>
       <c r="AD52">
         <v>1</v>
@@ -5620,7 +5515,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -5629,13 +5524,13 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F53" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="H53" t="s">
         <v>31</v>
@@ -5650,19 +5545,19 @@
         <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="N53" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="O53" t="s">
         <v>38</v>
       </c>
       <c r="P53" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="Q53" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="R53">
         <v>2482</v>
@@ -5676,14 +5571,14 @@
       <c r="U53">
         <v>4</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC53" s="2" t="s">
-        <v>38</v>
+      <c r="V53" s="1">
+        <v>16405514</v>
+      </c>
+      <c r="AB53">
+        <v>16830427</v>
+      </c>
+      <c r="AC53">
+        <v>16663608</v>
       </c>
       <c r="AD53">
         <v>1</v>
@@ -5700,7 +5595,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -5709,13 +5604,13 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F54" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="H54" t="s">
         <v>32</v>
@@ -5730,19 +5625,19 @@
         <v>38</v>
       </c>
       <c r="M54" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N54" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="O54" t="s">
         <v>38</v>
       </c>
       <c r="P54" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="Q54" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="R54">
         <v>9413</v>
@@ -5756,14 +5651,14 @@
       <c r="U54">
         <v>4</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC54" s="2" t="s">
-        <v>38</v>
+      <c r="V54" s="1">
+        <v>16690886</v>
+      </c>
+      <c r="AB54">
+        <v>16867025</v>
+      </c>
+      <c r="AC54">
+        <v>16522774</v>
       </c>
       <c r="AD54">
         <v>1</v>
@@ -5780,7 +5675,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -5789,13 +5684,13 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F55" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="H55" t="s">
         <v>33</v>
@@ -5803,26 +5698,23 @@
       <c r="I55">
         <v>54</v>
       </c>
-      <c r="J55">
-        <v>54</v>
-      </c>
       <c r="L55" t="s">
         <v>38</v>
       </c>
       <c r="M55" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="N55" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="O55" t="s">
         <v>38</v>
       </c>
       <c r="P55" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="Q55" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="R55">
         <v>9559</v>
@@ -5836,14 +5728,14 @@
       <c r="U55">
         <v>4</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC55" s="2" t="s">
-        <v>38</v>
+      <c r="V55" s="1">
+        <v>16964458</v>
+      </c>
+      <c r="AB55">
+        <v>16764594</v>
+      </c>
+      <c r="AC55">
+        <v>16380068</v>
       </c>
       <c r="AD55">
         <v>1</v>
@@ -5860,7 +5752,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -5869,13 +5761,13 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F56" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="H56" t="s">
         <v>34</v>
@@ -5890,19 +5782,19 @@
         <v>38</v>
       </c>
       <c r="M56" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N56" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="O56" t="s">
         <v>38</v>
       </c>
       <c r="P56" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="Q56" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="R56">
         <v>9735</v>
@@ -5916,14 +5808,14 @@
       <c r="U56">
         <v>4</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC56" s="2" t="s">
-        <v>38</v>
+      <c r="V56" s="1">
+        <v>16212672</v>
+      </c>
+      <c r="AB56">
+        <v>16146824</v>
+      </c>
+      <c r="AC56">
+        <v>16269329</v>
       </c>
       <c r="AD56">
         <v>1</v>
@@ -5940,7 +5832,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -5949,10 +5841,10 @@
         <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="F57" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="G57" s="1">
         <v>208</v>
@@ -5970,19 +5862,19 @@
         <v>38</v>
       </c>
       <c r="M57" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="N57" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="O57" t="s">
         <v>38</v>
       </c>
       <c r="P57" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="Q57" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="R57">
         <v>3755</v>
@@ -5996,14 +5888,14 @@
       <c r="U57">
         <v>4</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB57" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC57" s="2">
-        <v>25278</v>
+      <c r="V57" s="1">
+        <v>16124333</v>
+      </c>
+      <c r="AB57">
+        <v>16838424</v>
+      </c>
+      <c r="AC57">
+        <v>16520144</v>
       </c>
       <c r="AD57">
         <v>1</v>
@@ -6020,7 +5912,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -6029,13 +5921,13 @@
         <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F58" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="H58" t="s">
         <v>37</v>
@@ -6050,19 +5942,19 @@
         <v>38</v>
       </c>
       <c r="M58" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N58" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="O58" t="s">
         <v>38</v>
       </c>
       <c r="P58" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="Q58" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="R58">
         <v>155</v>
@@ -6076,14 +5968,14 @@
       <c r="U58">
         <v>4</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB58" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC58" s="2" t="s">
-        <v>38</v>
+      <c r="V58" s="1">
+        <v>16673522</v>
+      </c>
+      <c r="AB58">
+        <v>16351960</v>
+      </c>
+      <c r="AC58">
+        <v>16134530</v>
       </c>
       <c r="AD58">
         <v>1</v>
@@ -6100,7 +5992,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -6109,10 +6001,10 @@
         <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F59" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G59" s="1">
         <v>1500</v>
@@ -6130,19 +6022,19 @@
         <v>38</v>
       </c>
       <c r="M59" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="N59" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="O59" t="s">
         <v>38</v>
       </c>
       <c r="P59" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="Q59" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="R59">
         <v>9957</v>
@@ -6156,14 +6048,14 @@
       <c r="U59">
         <v>4</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB59" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC59" s="2" t="s">
-        <v>38</v>
+      <c r="V59" s="1">
+        <v>16811592</v>
+      </c>
+      <c r="AB59">
+        <v>16553160</v>
+      </c>
+      <c r="AC59">
+        <v>16341171</v>
       </c>
       <c r="AD59">
         <v>1</v>
@@ -6180,7 +6072,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -6189,13 +6081,13 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F60" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="H60" t="s">
         <v>31</v>
@@ -6203,26 +6095,23 @@
       <c r="I60">
         <v>59</v>
       </c>
-      <c r="J60">
-        <v>59</v>
-      </c>
       <c r="L60" t="s">
         <v>38</v>
       </c>
       <c r="M60" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="N60" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="O60" t="s">
         <v>38</v>
       </c>
       <c r="P60" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="Q60" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="R60">
         <v>2679</v>
@@ -6236,14 +6125,14 @@
       <c r="U60">
         <v>4</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC60" s="2" t="s">
-        <v>38</v>
+      <c r="V60" s="1">
+        <v>16102876</v>
+      </c>
+      <c r="AB60">
+        <v>16224619</v>
+      </c>
+      <c r="AC60">
+        <v>16322790</v>
       </c>
       <c r="AD60">
         <v>1</v>
@@ -6260,7 +6149,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -6269,13 +6158,13 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F61" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="H61" t="s">
         <v>36</v>
@@ -6290,19 +6179,19 @@
         <v>38</v>
       </c>
       <c r="M61" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N61" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="O61" t="s">
         <v>38</v>
       </c>
       <c r="P61" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="Q61" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="R61">
         <v>8418</v>
@@ -6316,14 +6205,14 @@
       <c r="U61">
         <v>4</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC61" s="2" t="s">
-        <v>38</v>
+      <c r="V61" s="1">
+        <v>16355711</v>
+      </c>
+      <c r="AB61">
+        <v>16275776</v>
+      </c>
+      <c r="AC61">
+        <v>16839743</v>
       </c>
       <c r="AD61">
         <v>1</v>
@@ -6340,7 +6229,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -6349,13 +6238,13 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F62" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="H62" t="s">
         <v>34</v>
@@ -6373,19 +6262,19 @@
         <v>1550</v>
       </c>
       <c r="M62" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N62" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="O62" t="s">
         <v>38</v>
       </c>
       <c r="P62" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="Q62" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="R62">
         <v>1717</v>
@@ -6399,14 +6288,14 @@
       <c r="U62">
         <v>4</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC62" s="2" t="s">
-        <v>38</v>
+      <c r="V62" s="1">
+        <v>16288377</v>
+      </c>
+      <c r="AB62">
+        <v>16627277</v>
+      </c>
+      <c r="AC62">
+        <v>16570256</v>
       </c>
       <c r="AD62">
         <v>1</v>
@@ -6423,7 +6312,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="C63">
         <v>7</v>
@@ -6432,13 +6321,13 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F63" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="H63" t="s">
         <v>36</v>
@@ -6456,19 +6345,19 @@
         <v>1551</v>
       </c>
       <c r="M63" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="N63" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="O63" t="s">
         <v>38</v>
       </c>
       <c r="P63" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="Q63" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="R63">
         <v>4258</v>
@@ -6482,14 +6371,14 @@
       <c r="U63">
         <v>4</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC63" s="2" t="s">
-        <v>38</v>
+      <c r="V63" s="1">
+        <v>16122720</v>
+      </c>
+      <c r="AB63">
+        <v>16107861</v>
+      </c>
+      <c r="AC63">
+        <v>16373719</v>
       </c>
       <c r="AD63">
         <v>1</v>
@@ -6506,7 +6395,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="C64">
         <v>7</v>
@@ -6515,13 +6404,13 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F64" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="H64" t="s">
         <v>37</v>
@@ -6539,19 +6428,19 @@
         <v>1552</v>
       </c>
       <c r="M64" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N64" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="O64" t="s">
         <v>38</v>
       </c>
       <c r="P64" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="Q64" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="R64">
         <v>8540</v>
@@ -6565,14 +6454,14 @@
       <c r="U64">
         <v>4</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB64" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC64" s="2" t="s">
-        <v>38</v>
+      <c r="V64" s="1">
+        <v>16789108</v>
+      </c>
+      <c r="AB64">
+        <v>16364830</v>
+      </c>
+      <c r="AC64">
+        <v>16286877</v>
       </c>
       <c r="AD64">
         <v>1</v>
@@ -6589,7 +6478,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="C65">
         <v>7</v>
@@ -6598,13 +6487,13 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F65" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="H65" t="s">
         <v>31</v>
@@ -6612,9 +6501,6 @@
       <c r="I65">
         <v>64</v>
       </c>
-      <c r="J65">
-        <v>64</v>
-      </c>
       <c r="K65">
         <v>4</v>
       </c>
@@ -6622,19 +6508,19 @@
         <v>1553</v>
       </c>
       <c r="M65" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="N65" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="O65" t="s">
         <v>38</v>
       </c>
       <c r="P65" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="Q65" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="R65">
         <v>3606</v>
@@ -6648,14 +6534,14 @@
       <c r="U65">
         <v>4</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB65" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC65" s="2" t="s">
-        <v>38</v>
+      <c r="V65" s="1">
+        <v>16706909</v>
+      </c>
+      <c r="AB65">
+        <v>16477861</v>
+      </c>
+      <c r="AC65">
+        <v>16183884</v>
       </c>
       <c r="AD65">
         <v>1</v>
@@ -6672,7 +6558,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="C66">
         <v>7</v>
@@ -6681,13 +6567,13 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F66" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="H66" t="s">
         <v>32</v>
@@ -6705,19 +6591,19 @@
         <v>1554</v>
       </c>
       <c r="M66" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N66" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="O66" t="s">
         <v>38</v>
       </c>
       <c r="P66" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="Q66" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="R66">
         <v>5994</v>
@@ -6731,14 +6617,14 @@
       <c r="U66">
         <v>4</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB66" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC66" s="2" t="s">
-        <v>38</v>
+      <c r="V66" s="1">
+        <v>16111733</v>
+      </c>
+      <c r="AB66">
+        <v>16325964</v>
+      </c>
+      <c r="AC66">
+        <v>16398113</v>
       </c>
       <c r="AD66">
         <v>1</v>
@@ -6755,7 +6641,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="C67">
         <v>7</v>
@@ -6764,13 +6650,13 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F67" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="H67" t="s">
         <v>33</v>
@@ -6788,19 +6674,19 @@
         <v>1555</v>
       </c>
       <c r="M67" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N67" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="O67" t="s">
         <v>38</v>
       </c>
       <c r="P67" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="Q67" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="R67">
         <v>1917</v>
@@ -6814,14 +6700,14 @@
       <c r="U67">
         <v>4</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB67" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC67" s="2" t="s">
-        <v>38</v>
+      <c r="V67" s="1">
+        <v>16305814</v>
+      </c>
+      <c r="AB67">
+        <v>16879557</v>
+      </c>
+      <c r="AC67">
+        <v>16968366</v>
       </c>
       <c r="AD67">
         <v>1</v>
@@ -6838,7 +6724,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C68">
         <v>7</v>
@@ -6847,13 +6733,13 @@
         <v>5</v>
       </c>
       <c r="E68" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="F68" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="H68" t="s">
         <v>34</v>
@@ -6871,19 +6757,19 @@
         <v>1556</v>
       </c>
       <c r="M68" t="s">
+        <v>326</v>
+      </c>
+      <c r="N68" t="s">
+        <v>294</v>
+      </c>
+      <c r="O68" t="s">
+        <v>38</v>
+      </c>
+      <c r="P68" t="s">
         <v>310</v>
       </c>
-      <c r="N68" t="s">
-        <v>320</v>
-      </c>
-      <c r="O68" t="s">
-        <v>38</v>
-      </c>
-      <c r="P68" t="s">
-        <v>336</v>
-      </c>
       <c r="Q68" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="R68">
         <v>2379</v>
@@ -6897,14 +6783,14 @@
       <c r="U68">
         <v>4</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB68" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC68" s="2" t="s">
-        <v>38</v>
+      <c r="V68" s="1">
+        <v>16522228</v>
+      </c>
+      <c r="AB68">
+        <v>16289677</v>
+      </c>
+      <c r="AC68">
+        <v>16907697</v>
       </c>
       <c r="AD68">
         <v>1</v>
@@ -6921,7 +6807,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="C69">
         <v>7</v>
@@ -6930,13 +6816,13 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F69" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="H69" t="s">
         <v>36</v>
@@ -6954,19 +6840,19 @@
         <v>1557</v>
       </c>
       <c r="M69" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N69" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="O69" t="s">
         <v>38</v>
       </c>
       <c r="P69" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="Q69" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="R69">
         <v>6618</v>
@@ -6980,14 +6866,14 @@
       <c r="U69">
         <v>4</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB69" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC69" s="2" t="s">
-        <v>38</v>
+      <c r="V69" s="1">
+        <v>16839198</v>
+      </c>
+      <c r="AB69">
+        <v>16256980</v>
+      </c>
+      <c r="AC69">
+        <v>16390523</v>
       </c>
       <c r="AD69">
         <v>1</v>
@@ -7004,7 +6890,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="C70">
         <v>7</v>
@@ -7013,10 +6899,10 @@
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="G70" s="1">
         <v>208</v>
@@ -7027,9 +6913,6 @@
       <c r="I70">
         <v>69</v>
       </c>
-      <c r="J70">
-        <v>69</v>
-      </c>
       <c r="K70">
         <v>9</v>
       </c>
@@ -7037,19 +6920,19 @@
         <v>1558</v>
       </c>
       <c r="M70" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="N70" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="O70" t="s">
         <v>38</v>
       </c>
       <c r="P70" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="Q70" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="R70">
         <v>2665</v>
@@ -7063,14 +6946,14 @@
       <c r="U70">
         <v>4</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB70" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC70" s="2" t="s">
-        <v>38</v>
+      <c r="V70" s="1">
+        <v>16850111</v>
+      </c>
+      <c r="AB70">
+        <v>16822262</v>
+      </c>
+      <c r="AC70">
+        <v>16323631</v>
       </c>
       <c r="AD70">
         <v>1</v>
@@ -7087,7 +6970,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C71">
         <v>7</v>
@@ -7096,13 +6979,13 @@
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F71" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="H71" t="s">
         <v>34</v>
@@ -7120,19 +7003,19 @@
         <v>1559</v>
       </c>
       <c r="M71" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N71" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="O71" t="s">
         <v>38</v>
       </c>
       <c r="P71" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="Q71" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="R71">
         <v>6786</v>
@@ -7146,14 +7029,14 @@
       <c r="U71">
         <v>4</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB71" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC71" s="2" t="s">
-        <v>38</v>
+      <c r="V71" s="1">
+        <v>16964076</v>
+      </c>
+      <c r="AB71">
+        <v>16351429</v>
+      </c>
+      <c r="AC71">
+        <v>16661031</v>
       </c>
       <c r="AD71">
         <v>1</v>
@@ -7170,7 +7053,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C72">
         <v>8</v>
@@ -7179,13 +7062,13 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="H72" t="s">
         <v>31</v>
@@ -7200,19 +7083,19 @@
         <v>38</v>
       </c>
       <c r="M72" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="N72" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="O72" t="s">
         <v>38</v>
       </c>
       <c r="P72" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="Q72" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="R72">
         <v>5975</v>
@@ -7226,14 +7109,14 @@
       <c r="U72">
         <v>4</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB72" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC72" s="2" t="s">
-        <v>38</v>
+      <c r="V72" s="1">
+        <v>16227039</v>
+      </c>
+      <c r="AB72">
+        <v>16924527</v>
+      </c>
+      <c r="AC72">
+        <v>16667166</v>
       </c>
       <c r="AD72">
         <v>1</v>
@@ -7250,7 +7133,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C73">
         <v>8</v>
@@ -7259,13 +7142,13 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F73" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="H73" t="s">
         <v>32</v>
@@ -7280,19 +7163,19 @@
         <v>38</v>
       </c>
       <c r="M73" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="N73" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="O73" t="s">
         <v>38</v>
       </c>
       <c r="P73" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="Q73" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="R73">
         <v>5507</v>
@@ -7307,13 +7190,13 @@
         <v>4</v>
       </c>
       <c r="V73" s="1">
-        <v>12246</v>
-      </c>
-      <c r="AB73" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC73" s="2" t="s">
-        <v>317</v>
+        <v>16178929</v>
+      </c>
+      <c r="AB73">
+        <v>16386253</v>
+      </c>
+      <c r="AC73">
+        <v>16027182</v>
       </c>
       <c r="AD73">
         <v>1</v>
@@ -7330,7 +7213,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="C74">
         <v>8</v>
@@ -7339,13 +7222,13 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F74" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="H74" t="s">
         <v>33</v>
@@ -7360,19 +7243,19 @@
         <v>38</v>
       </c>
       <c r="M74" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N74" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="O74" t="s">
         <v>38</v>
       </c>
       <c r="P74" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="Q74" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="R74">
         <v>5041</v>
@@ -7386,14 +7269,14 @@
       <c r="U74">
         <v>4</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB74" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC74" s="2" t="s">
-        <v>38</v>
+      <c r="V74" s="1">
+        <v>16738099</v>
+      </c>
+      <c r="AB74">
+        <v>16442000</v>
+      </c>
+      <c r="AC74">
+        <v>16321902</v>
       </c>
       <c r="AD74">
         <v>1</v>
@@ -7410,7 +7293,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="C75">
         <v>8</v>
@@ -7419,13 +7302,13 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F75" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="H75" t="s">
         <v>34</v>
@@ -7433,23 +7316,26 @@
       <c r="I75">
         <v>74</v>
       </c>
+      <c r="J75">
+        <v>74</v>
+      </c>
       <c r="L75" t="s">
         <v>38</v>
       </c>
       <c r="M75" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="N75" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="O75" t="s">
         <v>38</v>
       </c>
       <c r="P75" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="Q75" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="R75">
         <v>256</v>
@@ -7463,14 +7349,14 @@
       <c r="U75">
         <v>4</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB75" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC75" s="2" t="s">
-        <v>38</v>
+      <c r="V75" s="1">
+        <v>16667015</v>
+      </c>
+      <c r="AB75">
+        <v>16607818</v>
+      </c>
+      <c r="AC75">
+        <v>16429504</v>
       </c>
       <c r="AD75">
         <v>1</v>
@@ -7487,7 +7373,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="C76">
         <v>8</v>
@@ -7496,13 +7382,13 @@
         <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="F76" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="H76" t="s">
         <v>36</v>
@@ -7514,19 +7400,19 @@
         <v>38</v>
       </c>
       <c r="M76" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="N76" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="O76" t="s">
         <v>38</v>
       </c>
       <c r="P76" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="Q76" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="R76">
         <v>4120</v>
@@ -7540,14 +7426,14 @@
       <c r="U76">
         <v>4</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB76" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC76" s="2" t="s">
-        <v>38</v>
+      <c r="V76" s="1">
+        <v>16687438</v>
+      </c>
+      <c r="AB76">
+        <v>16259707</v>
+      </c>
+      <c r="AC76">
+        <v>16010893</v>
       </c>
       <c r="AD76">
         <v>1</v>
@@ -7564,7 +7450,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="C77">
         <v>8</v>
@@ -7573,13 +7459,13 @@
         <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F77" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="H77" t="s">
         <v>37</v>
@@ -7587,23 +7473,26 @@
       <c r="I77">
         <v>76</v>
       </c>
+      <c r="J77">
+        <v>76</v>
+      </c>
       <c r="L77" t="s">
         <v>38</v>
       </c>
       <c r="M77" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N77" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="O77" t="s">
         <v>38</v>
       </c>
       <c r="P77" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="Q77" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="R77">
         <v>8332</v>
@@ -7617,14 +7506,14 @@
       <c r="U77">
         <v>4</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB77" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC77" s="2" t="s">
-        <v>38</v>
+      <c r="V77" s="1">
+        <v>16418944</v>
+      </c>
+      <c r="AB77">
+        <v>16697891</v>
+      </c>
+      <c r="AC77">
+        <v>16431278</v>
       </c>
       <c r="AD77">
         <v>1</v>
@@ -7641,7 +7530,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="C78">
         <v>8</v>
@@ -7650,13 +7539,13 @@
         <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F78" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="H78" t="s">
         <v>34</v>
@@ -7664,23 +7553,26 @@
       <c r="I78">
         <v>77</v>
       </c>
+      <c r="J78">
+        <v>77</v>
+      </c>
       <c r="L78" t="s">
         <v>38</v>
       </c>
       <c r="M78" t="s">
+        <v>326</v>
+      </c>
+      <c r="N78" t="s">
+        <v>304</v>
+      </c>
+      <c r="O78" t="s">
+        <v>38</v>
+      </c>
+      <c r="P78" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q78" t="s">
         <v>310</v>
-      </c>
-      <c r="N78" t="s">
-        <v>330</v>
-      </c>
-      <c r="O78" t="s">
-        <v>38</v>
-      </c>
-      <c r="P78" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>336</v>
       </c>
       <c r="R78">
         <v>6565</v>
@@ -7694,14 +7586,14 @@
       <c r="U78">
         <v>4</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB78" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC78" s="2" t="s">
-        <v>38</v>
+      <c r="V78" s="1">
+        <v>16184662</v>
+      </c>
+      <c r="AB78">
+        <v>16145490</v>
+      </c>
+      <c r="AC78">
+        <v>16124456</v>
       </c>
       <c r="AD78">
         <v>1</v>
@@ -7718,7 +7610,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="C79">
         <v>8</v>
@@ -7727,13 +7619,13 @@
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F79" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="H79" t="s">
         <v>31</v>
@@ -7741,23 +7633,26 @@
       <c r="I79">
         <v>78</v>
       </c>
+      <c r="J79">
+        <v>78</v>
+      </c>
       <c r="L79" t="s">
         <v>38</v>
       </c>
       <c r="M79" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N79" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="O79" t="s">
         <v>38</v>
       </c>
       <c r="P79" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="Q79" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="R79">
         <v>5821</v>
@@ -7771,14 +7666,14 @@
       <c r="U79">
         <v>4</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB79" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC79" s="2" t="s">
-        <v>38</v>
+      <c r="V79" s="1">
+        <v>16824257</v>
+      </c>
+      <c r="AB79">
+        <v>16839205</v>
+      </c>
+      <c r="AC79">
+        <v>16510655</v>
       </c>
       <c r="AD79">
         <v>1</v>
@@ -7795,7 +7690,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="C80">
         <v>8</v>
@@ -7804,13 +7699,13 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F80" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="H80" t="s">
         <v>32</v>
@@ -7818,23 +7713,26 @@
       <c r="I80">
         <v>79</v>
       </c>
+      <c r="J80">
+        <v>79</v>
+      </c>
       <c r="L80" t="s">
         <v>38</v>
       </c>
       <c r="M80" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N80" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="O80" t="s">
         <v>38</v>
       </c>
       <c r="P80" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="Q80" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="R80">
         <v>3836</v>
@@ -7848,14 +7746,14 @@
       <c r="U80">
         <v>4</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB80" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC80" s="2" t="s">
-        <v>38</v>
+      <c r="V80" s="1">
+        <v>16714293</v>
+      </c>
+      <c r="AB80">
+        <v>16734651</v>
+      </c>
+      <c r="AC80">
+        <v>16637696</v>
       </c>
       <c r="AD80">
         <v>1</v>
@@ -7872,7 +7770,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="C81">
         <v>8</v>
@@ -7881,13 +7779,13 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F81" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="H81" t="s">
         <v>33</v>
@@ -7895,23 +7793,26 @@
       <c r="I81">
         <v>80</v>
       </c>
+      <c r="J81">
+        <v>80</v>
+      </c>
       <c r="L81" t="s">
         <v>38</v>
       </c>
       <c r="M81" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N81" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="O81" t="s">
         <v>38</v>
       </c>
       <c r="P81" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="Q81" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="R81">
         <v>9037</v>
@@ -7925,14 +7826,14 @@
       <c r="U81">
         <v>4</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB81" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC81" s="2" t="s">
-        <v>38</v>
+      <c r="V81" s="1">
+        <v>16275783</v>
+      </c>
+      <c r="AB81">
+        <v>16776700</v>
+      </c>
+      <c r="AC81">
+        <v>16922601</v>
       </c>
       <c r="AD81">
         <v>1</v>
@@ -7949,7 +7850,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="C82">
         <v>9</v>
@@ -7958,10 +7859,10 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F82" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="G82" s="1">
         <v>9</v>
@@ -7972,23 +7873,26 @@
       <c r="I82">
         <v>81</v>
       </c>
+      <c r="J82">
+        <v>81</v>
+      </c>
       <c r="L82" t="s">
         <v>38</v>
       </c>
       <c r="M82" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N82" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="O82" t="s">
         <v>38</v>
       </c>
       <c r="P82" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="Q82" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="R82">
         <v>4457</v>
@@ -8002,14 +7906,14 @@
       <c r="U82">
         <v>4</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB82" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC82" s="2" t="s">
-        <v>38</v>
+      <c r="V82" s="1">
+        <v>16220334</v>
+      </c>
+      <c r="AB82">
+        <v>16056536</v>
+      </c>
+      <c r="AC82">
+        <v>16478136</v>
       </c>
       <c r="AD82">
         <v>1</v>
@@ -8026,7 +7930,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="C83">
         <v>9</v>
@@ -8035,10 +7939,10 @@
         <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="F83" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="G83" s="1">
         <v>206</v>
@@ -8049,23 +7953,26 @@
       <c r="I83">
         <v>82</v>
       </c>
+      <c r="J83">
+        <v>82</v>
+      </c>
       <c r="L83" t="s">
         <v>38</v>
       </c>
       <c r="M83" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N83" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="O83" t="s">
         <v>38</v>
       </c>
       <c r="P83" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="Q83" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="R83">
         <v>5465</v>
@@ -8079,14 +7986,14 @@
       <c r="U83">
         <v>4</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB83" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC83" s="2" t="s">
-        <v>38</v>
+      <c r="V83" s="1">
+        <v>16719167</v>
+      </c>
+      <c r="AB83">
+        <v>16879823</v>
+      </c>
+      <c r="AC83">
+        <v>16902669</v>
       </c>
       <c r="AD83">
         <v>1</v>
@@ -8103,7 +8010,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="C84">
         <v>9</v>
@@ -8112,13 +8019,13 @@
         <v>4</v>
       </c>
       <c r="E84" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F84" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="H84" t="s">
         <v>37</v>
@@ -8126,23 +8033,26 @@
       <c r="I84">
         <v>83</v>
       </c>
+      <c r="J84">
+        <v>83</v>
+      </c>
       <c r="L84" t="s">
         <v>38</v>
       </c>
       <c r="M84" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="N84" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="O84" t="s">
         <v>38</v>
       </c>
       <c r="P84" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="Q84" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="R84">
         <v>1150</v>
@@ -8156,14 +8066,14 @@
       <c r="U84">
         <v>4</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB84" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC84" s="2" t="s">
-        <v>38</v>
+      <c r="V84" s="1">
+        <v>16207676</v>
+      </c>
+      <c r="AB84">
+        <v>16310303</v>
+      </c>
+      <c r="AC84">
+        <v>16454695</v>
       </c>
       <c r="AD84">
         <v>1</v>
@@ -8180,7 +8090,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="C85">
         <v>9</v>
@@ -8189,10 +8099,10 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F85" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="G85" s="1">
         <v>206</v>
@@ -8203,23 +8113,26 @@
       <c r="I85">
         <v>84</v>
       </c>
+      <c r="J85">
+        <v>84</v>
+      </c>
       <c r="L85" t="s">
         <v>38</v>
       </c>
       <c r="M85" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="N85" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="O85" t="s">
         <v>38</v>
       </c>
       <c r="P85" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="Q85" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="R85">
         <v>5305</v>
@@ -8234,13 +8147,13 @@
         <v>4</v>
       </c>
       <c r="V85" s="1">
-        <v>15011</v>
-      </c>
-      <c r="AB85" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC85" s="2" t="s">
-        <v>38</v>
+        <v>16605887</v>
+      </c>
+      <c r="AB85">
+        <v>16986878</v>
+      </c>
+      <c r="AC85">
+        <v>16557248</v>
       </c>
       <c r="AD85">
         <v>1</v>
@@ -8257,7 +8170,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="C86">
         <v>9</v>
@@ -8266,13 +8179,13 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F86" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="H86" t="s">
         <v>31</v>
@@ -8280,23 +8193,26 @@
       <c r="I86">
         <v>85</v>
       </c>
+      <c r="J86">
+        <v>85</v>
+      </c>
       <c r="L86" t="s">
         <v>38</v>
       </c>
       <c r="M86" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N86" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="O86" t="s">
         <v>38</v>
       </c>
       <c r="P86" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="Q86" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="R86">
         <v>2983</v>
@@ -8310,14 +8226,14 @@
       <c r="U86">
         <v>4</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB86" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC86" s="2" t="s">
-        <v>38</v>
+      <c r="V86" s="1">
+        <v>16558905</v>
+      </c>
+      <c r="AB86">
+        <v>16457969</v>
+      </c>
+      <c r="AC86">
+        <v>16904270</v>
       </c>
       <c r="AD86">
         <v>1</v>
@@ -8334,7 +8250,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="C87">
         <v>9</v>
@@ -8343,10 +8259,10 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F87" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="G87" s="1">
         <v>307</v>
@@ -8357,23 +8273,26 @@
       <c r="I87">
         <v>86</v>
       </c>
+      <c r="J87">
+        <v>86</v>
+      </c>
       <c r="L87" t="s">
         <v>38</v>
       </c>
       <c r="M87" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N87" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="O87" t="s">
         <v>38</v>
       </c>
       <c r="P87" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="Q87" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="R87">
         <v>4231</v>
@@ -8387,14 +8306,14 @@
       <c r="U87">
         <v>4</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB87" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC87" s="2" t="s">
-        <v>38</v>
+      <c r="V87" s="1">
+        <v>16618161</v>
+      </c>
+      <c r="AB87">
+        <v>16981027</v>
+      </c>
+      <c r="AC87">
+        <v>16464530</v>
       </c>
       <c r="AD87">
         <v>1</v>
@@ -8411,7 +8330,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="C88">
         <v>9</v>
@@ -8420,13 +8339,13 @@
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F88" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="H88" t="s">
         <v>37</v>
@@ -8438,19 +8357,19 @@
         <v>38</v>
       </c>
       <c r="M88" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="N88" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="O88" t="s">
         <v>38</v>
       </c>
       <c r="P88" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="Q88" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="R88">
         <v>5490</v>
@@ -8464,14 +8383,14 @@
       <c r="U88">
         <v>4</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB88" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC88" s="2" t="s">
-        <v>38</v>
+      <c r="V88" s="1">
+        <v>16407417</v>
+      </c>
+      <c r="AB88">
+        <v>16895570</v>
+      </c>
+      <c r="AC88">
+        <v>16895287</v>
       </c>
       <c r="AD88">
         <v>1</v>
@@ -8488,7 +8407,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="C89">
         <v>9</v>
@@ -8497,10 +8416,10 @@
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F89" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="G89" s="1">
         <v>207</v>
@@ -8511,23 +8430,26 @@
       <c r="I89">
         <v>88</v>
       </c>
+      <c r="J89">
+        <v>88</v>
+      </c>
       <c r="L89" t="s">
         <v>38</v>
       </c>
       <c r="M89" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="N89" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="O89" t="s">
         <v>38</v>
       </c>
       <c r="P89" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="Q89" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="R89">
         <v>2621</v>
@@ -8542,13 +8464,13 @@
         <v>4</v>
       </c>
       <c r="V89" s="1">
-        <v>27610</v>
-      </c>
-      <c r="AB89" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC89" s="2">
-        <v>29825</v>
+        <v>16113813</v>
+      </c>
+      <c r="AB89">
+        <v>16011009</v>
+      </c>
+      <c r="AC89">
+        <v>16892593</v>
       </c>
       <c r="AD89">
         <v>1</v>
@@ -8565,7 +8487,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="C90">
         <v>9</v>
@@ -8574,13 +8496,13 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F90" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="H90" t="s">
         <v>31</v>
@@ -8588,23 +8510,26 @@
       <c r="I90">
         <v>89</v>
       </c>
+      <c r="J90">
+        <v>89</v>
+      </c>
       <c r="L90" t="s">
         <v>38</v>
       </c>
       <c r="M90" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="N90" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="O90" t="s">
         <v>38</v>
       </c>
       <c r="P90" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="Q90" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="R90">
         <v>4112</v>
@@ -8619,13 +8544,13 @@
         <v>4</v>
       </c>
       <c r="V90" s="1">
-        <v>27609</v>
-      </c>
-      <c r="AB90" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC90" s="2" t="s">
-        <v>38</v>
+        <v>16356538</v>
+      </c>
+      <c r="AB90">
+        <v>16017860</v>
+      </c>
+      <c r="AC90">
+        <v>16692397</v>
       </c>
       <c r="AD90">
         <v>1</v>
@@ -8642,7 +8567,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="C91">
         <v>9</v>
@@ -8651,13 +8576,13 @@
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="F91" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="H91" t="s">
         <v>32</v>
@@ -8665,23 +8590,26 @@
       <c r="I91">
         <v>90</v>
       </c>
+      <c r="J91">
+        <v>90</v>
+      </c>
       <c r="L91" t="s">
         <v>38</v>
       </c>
       <c r="M91" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N91" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="O91" t="s">
         <v>38</v>
       </c>
       <c r="P91" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="Q91" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="R91">
         <v>294</v>
@@ -8695,14 +8623,14 @@
       <c r="U91">
         <v>4</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB91" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC91" s="2" t="s">
-        <v>38</v>
+      <c r="V91" s="1">
+        <v>16709797</v>
+      </c>
+      <c r="AB91">
+        <v>16872369</v>
+      </c>
+      <c r="AC91">
+        <v>16888752</v>
       </c>
       <c r="AD91">
         <v>1</v>
@@ -8719,7 +8647,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="C92">
         <v>10</v>
@@ -8728,13 +8656,13 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F92" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="H92" t="s">
         <v>33</v>
@@ -8742,23 +8670,26 @@
       <c r="I92">
         <v>91</v>
       </c>
+      <c r="J92">
+        <v>91</v>
+      </c>
       <c r="L92" t="s">
         <v>38</v>
       </c>
       <c r="M92" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="N92" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="O92" t="s">
         <v>38</v>
       </c>
       <c r="P92" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="Q92" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="R92">
         <v>5585</v>
@@ -8773,13 +8704,13 @@
         <v>4</v>
       </c>
       <c r="V92" s="1">
-        <v>27752</v>
-      </c>
-      <c r="AB92" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC92" s="2" t="s">
-        <v>38</v>
+        <v>16185091</v>
+      </c>
+      <c r="AB92">
+        <v>16739894</v>
+      </c>
+      <c r="AC92">
+        <v>16871728</v>
       </c>
       <c r="AD92">
         <v>1</v>
@@ -8796,7 +8727,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C93">
         <v>10</v>
@@ -8805,13 +8736,13 @@
         <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="F93" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="H93" t="s">
         <v>34</v>
@@ -8819,23 +8750,26 @@
       <c r="I93">
         <v>92</v>
       </c>
+      <c r="J93">
+        <v>92</v>
+      </c>
       <c r="L93" t="s">
         <v>38</v>
       </c>
       <c r="M93" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="N93" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="O93" t="s">
         <v>38</v>
       </c>
       <c r="P93" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="Q93" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="R93">
         <v>9388</v>
@@ -8849,14 +8783,14 @@
       <c r="U93">
         <v>4</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB93" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC93" s="2" t="s">
-        <v>38</v>
+      <c r="V93" s="1">
+        <v>16106249</v>
+      </c>
+      <c r="AB93">
+        <v>16114932</v>
+      </c>
+      <c r="AC93">
+        <v>16945337</v>
       </c>
       <c r="AD93">
         <v>1</v>
@@ -8873,7 +8807,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="C94">
         <v>10</v>
@@ -8882,13 +8816,13 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F94" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="H94" t="s">
         <v>36</v>
@@ -8896,23 +8830,26 @@
       <c r="I94">
         <v>93</v>
       </c>
+      <c r="J94">
+        <v>93</v>
+      </c>
       <c r="L94" t="s">
         <v>38</v>
       </c>
       <c r="M94" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="N94" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="O94" t="s">
         <v>38</v>
       </c>
       <c r="P94" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="Q94" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="R94">
         <v>6858</v>
@@ -8926,14 +8863,14 @@
       <c r="U94">
         <v>4</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB94" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC94" s="2" t="s">
-        <v>38</v>
+      <c r="V94" s="1">
+        <v>16243855</v>
+      </c>
+      <c r="AB94">
+        <v>16624945</v>
+      </c>
+      <c r="AC94">
+        <v>16076110</v>
       </c>
       <c r="AD94">
         <v>1</v>
@@ -8950,7 +8887,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="C95">
         <v>10</v>
@@ -8959,13 +8896,13 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="F95" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="H95" t="s">
         <v>37</v>
@@ -8977,19 +8914,19 @@
         <v>38</v>
       </c>
       <c r="M95" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="N95" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="O95" t="s">
         <v>38</v>
       </c>
       <c r="P95" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="Q95" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="R95">
         <v>8073</v>
@@ -9003,14 +8940,14 @@
       <c r="U95">
         <v>4</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB95" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC95" s="2" t="s">
-        <v>38</v>
+      <c r="V95" s="1">
+        <v>16765633</v>
+      </c>
+      <c r="AB95">
+        <v>16455330</v>
+      </c>
+      <c r="AC95">
+        <v>16507666</v>
       </c>
       <c r="AD95">
         <v>1</v>
@@ -9027,7 +8964,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="C96">
         <v>10</v>
@@ -9036,10 +8973,10 @@
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F96" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="G96" s="1">
         <v>19</v>
@@ -9054,19 +8991,19 @@
         <v>38</v>
       </c>
       <c r="M96" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="N96" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="O96" t="s">
         <v>38</v>
       </c>
       <c r="P96" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="Q96" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="R96">
         <v>3691</v>
@@ -9080,14 +9017,14 @@
       <c r="U96">
         <v>4</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB96" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC96" s="2" t="s">
-        <v>38</v>
+      <c r="V96" s="1">
+        <v>16736296</v>
+      </c>
+      <c r="AB96">
+        <v>16725316</v>
+      </c>
+      <c r="AC96">
+        <v>16430464</v>
       </c>
       <c r="AD96">
         <v>1</v>
@@ -9104,7 +9041,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="C97">
         <v>10</v>
@@ -9113,10 +9050,10 @@
         <v>5</v>
       </c>
       <c r="E97" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="F97" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="G97" s="1">
         <v>208</v>
@@ -9127,23 +9064,26 @@
       <c r="I97">
         <v>96</v>
       </c>
+      <c r="J97">
+        <v>96</v>
+      </c>
       <c r="L97" t="s">
         <v>38</v>
       </c>
       <c r="M97" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="N97" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="O97" t="s">
         <v>38</v>
       </c>
       <c r="P97" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="Q97" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="R97">
         <v>2979</v>
@@ -9157,14 +9097,14 @@
       <c r="U97">
         <v>4</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB97" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC97" s="2">
-        <v>47544</v>
+      <c r="V97" s="1">
+        <v>16131680</v>
+      </c>
+      <c r="AB97">
+        <v>16653603</v>
+      </c>
+      <c r="AC97">
+        <v>16612308</v>
       </c>
       <c r="AD97">
         <v>1</v>
@@ -9181,7 +9121,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="C98">
         <v>10</v>
@@ -9190,13 +9130,13 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="F98" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="H98" t="s">
         <v>36</v>
@@ -9204,23 +9144,26 @@
       <c r="I98">
         <v>97</v>
       </c>
+      <c r="J98">
+        <v>97</v>
+      </c>
       <c r="L98" t="s">
         <v>38</v>
       </c>
       <c r="M98" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="N98" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="O98" t="s">
         <v>38</v>
       </c>
       <c r="P98" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="Q98" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="R98">
         <v>5528</v>
@@ -9234,14 +9177,14 @@
       <c r="U98">
         <v>4</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB98" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC98" s="2" t="s">
-        <v>38</v>
+      <c r="V98" s="1">
+        <v>16333632</v>
+      </c>
+      <c r="AB98">
+        <v>16360796</v>
+      </c>
+      <c r="AC98">
+        <v>16013863</v>
       </c>
       <c r="AD98">
         <v>1</v>
@@ -9258,7 +9201,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="C99">
         <v>10</v>
@@ -9267,13 +9210,13 @@
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="F99" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="H99" t="s">
         <v>34</v>
@@ -9281,23 +9224,26 @@
       <c r="I99">
         <v>98</v>
       </c>
+      <c r="J99">
+        <v>98</v>
+      </c>
       <c r="L99" t="s">
         <v>38</v>
       </c>
       <c r="M99" t="s">
+        <v>329</v>
+      </c>
+      <c r="N99" t="s">
+        <v>309</v>
+      </c>
+      <c r="O99" t="s">
+        <v>38</v>
+      </c>
+      <c r="P99" t="s">
         <v>312</v>
       </c>
-      <c r="N99" t="s">
-        <v>335</v>
-      </c>
-      <c r="O99" t="s">
-        <v>38</v>
-      </c>
-      <c r="P99" t="s">
-        <v>338</v>
-      </c>
       <c r="Q99" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="R99">
         <v>3632</v>
@@ -9312,13 +9258,13 @@
         <v>4</v>
       </c>
       <c r="V99" s="1">
-        <v>27622</v>
-      </c>
-      <c r="AB99" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC99" s="2">
-        <v>29901</v>
+        <v>16850547</v>
+      </c>
+      <c r="AB99">
+        <v>16017799</v>
+      </c>
+      <c r="AC99">
+        <v>16806326</v>
       </c>
       <c r="AD99">
         <v>1</v>
@@ -9335,7 +9281,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="C100">
         <v>10</v>
@@ -9344,13 +9290,13 @@
         <v>5</v>
       </c>
       <c r="E100" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="F100" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="H100" t="s">
         <v>36</v>
@@ -9358,23 +9304,26 @@
       <c r="I100">
         <v>99</v>
       </c>
+      <c r="J100">
+        <v>99</v>
+      </c>
       <c r="L100" t="s">
         <v>38</v>
       </c>
       <c r="M100" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="N100" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="O100" t="s">
         <v>38</v>
       </c>
       <c r="P100" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="Q100" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="R100">
         <v>4795</v>
@@ -9389,13 +9338,13 @@
         <v>4</v>
       </c>
       <c r="V100" s="1">
-        <v>27365</v>
-      </c>
-      <c r="AB100" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC100" s="2">
-        <v>30462</v>
+        <v>16393401</v>
+      </c>
+      <c r="AB100">
+        <v>16510607</v>
+      </c>
+      <c r="AC100">
+        <v>16840129</v>
       </c>
       <c r="AD100">
         <v>1</v>
@@ -9412,7 +9361,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="C101">
         <v>10</v>
@@ -9421,13 +9370,13 @@
         <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="F101" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="H101" t="s">
         <v>37</v>
@@ -9435,23 +9384,26 @@
       <c r="I101">
         <v>100</v>
       </c>
+      <c r="J101">
+        <v>100</v>
+      </c>
       <c r="L101" t="s">
         <v>38</v>
       </c>
       <c r="M101" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="N101" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="O101" t="s">
         <v>38</v>
       </c>
       <c r="P101" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="Q101" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="R101">
         <v>1296</v>
@@ -9466,13 +9418,13 @@
         <v>4</v>
       </c>
       <c r="V101" s="1">
-        <v>23067</v>
-      </c>
-      <c r="AB101" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC101" s="2">
-        <v>30454</v>
+        <v>16510708</v>
+      </c>
+      <c r="AB101">
+        <v>16783994</v>
+      </c>
+      <c r="AC101">
+        <v>16085607</v>
       </c>
       <c r="AD101">
         <v>1</v>
